--- a/src/test/resources/LCO_Portal.xlsx
+++ b/src/test/resources/LCO_Portal.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Automation Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7A8188-6A2A-4D4D-9908-16B579223F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43CAA97A-E947-44A6-9405-818B96F2835B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{8CEE5445-3953-4135-9B80-55131EEB0AB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="3705" xr2:uid="{8CEE5445-3953-4135-9B80-55131EEB0AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="BulkPayment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>0000832B00011104</t>
+    <t>000083330013F678</t>
   </si>
 </sst>
 </file>
@@ -80,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D4598E-100F-4DAC-B506-87BA5BFEC47B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -412,7 +411,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/LCO_Portal.xlsx
+++ b/src/test/resources/LCO_Portal.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43CAA97A-E947-44A6-9405-818B96F2835B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\LcoPortal\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD9DAB7-E609-49C0-A8A6-0969F30C2C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="3705" xr2:uid="{8CEE5445-3953-4135-9B80-55131EEB0AB6}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="BulkPayment" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>000083330013F678</t>
+    <t>0000832B000C911C</t>
   </si>
 </sst>
 </file>
@@ -397,7 +401,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
